--- a/teaching/traditional_assets/database/data/gibraltar/gibraltar_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/gibraltar/gibraltar_precious_metals.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.06474074074074074</v>
+        <v>-0.1849489795918367</v>
       </c>
       <c r="H2">
-        <v>-0.06474074074074074</v>
+        <v>-0.1849489795918367</v>
       </c>
       <c r="I2">
-        <v>-0.07207407407407407</v>
+        <v>-0.1658163265306123</v>
       </c>
       <c r="J2">
-        <v>-0.07207407407407407</v>
+        <v>-0.1658163265306123</v>
       </c>
       <c r="K2">
-        <v>-1.9</v>
+        <v>-1.96</v>
       </c>
       <c r="L2">
-        <v>-0.1407407407407407</v>
+        <v>-0.25</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.003658536585365854</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.06122448979591837</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,34 +627,37 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.036</v>
+        <v>0.163</v>
       </c>
       <c r="V2">
-        <v>0.05027932960893854</v>
+        <v>0.004969512195121952</v>
       </c>
       <c r="W2">
-        <v>-1.275167785234899</v>
+        <v>-1.248407643312102</v>
       </c>
       <c r="X2">
-        <v>0.07920920651368583</v>
+        <v>0.06026819411833331</v>
       </c>
       <c r="Y2">
-        <v>-1.354376991748585</v>
+        <v>-1.308675837430435</v>
       </c>
       <c r="Z2">
-        <v>19.65065502183406</v>
+        <v>9.987261146496815</v>
       </c>
       <c r="AA2">
-        <v>-1.416302765647744</v>
+        <v>-1.656050955414013</v>
       </c>
       <c r="AB2">
-        <v>0.07920920651368583</v>
+        <v>0.06026819411833331</v>
       </c>
       <c r="AC2">
-        <v>-1.49551197216143</v>
+        <v>-1.716319149532346</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.036</v>
+        <v>-0.163</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -675,22 +678,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.05294117647058823</v>
+        <v>-0.004994331586849281</v>
       </c>
       <c r="AK2">
-        <v>-0.02346805736636245</v>
+        <v>-0.2620578778135048</v>
       </c>
       <c r="AL2">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="AM2">
-        <v>0.016</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN2">
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-60.8125</v>
+        <v>-65</v>
+      </c>
+      <c r="AP2">
+        <v>0.12734375</v>
       </c>
       <c r="AQ2">
-        <v>-60.8125</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="3">
@@ -710,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.06474074074074074</v>
+        <v>-0.1849489795918367</v>
       </c>
       <c r="H3">
-        <v>-0.06474074074074074</v>
+        <v>-0.1849489795918367</v>
       </c>
       <c r="I3">
-        <v>-0.07207407407407407</v>
+        <v>-0.1658163265306123</v>
       </c>
       <c r="J3">
-        <v>-0.07207407407407407</v>
+        <v>-0.1658163265306123</v>
       </c>
       <c r="K3">
-        <v>-1.9</v>
+        <v>-1.96</v>
       </c>
       <c r="L3">
-        <v>-0.1407407407407407</v>
+        <v>-0.25</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.12</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.003658536585365854</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.06122448979591837</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -746,34 +755,37 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.036</v>
+        <v>0.163</v>
       </c>
       <c r="V3">
-        <v>0.05027932960893854</v>
+        <v>0.004969512195121952</v>
       </c>
       <c r="W3">
-        <v>-1.275167785234899</v>
+        <v>-1.248407643312102</v>
       </c>
       <c r="X3">
-        <v>0.07920920651368583</v>
+        <v>0.06026819411833331</v>
       </c>
       <c r="Y3">
-        <v>-1.354376991748585</v>
+        <v>-1.308675837430435</v>
       </c>
       <c r="Z3">
-        <v>19.65065502183406</v>
+        <v>9.987261146496815</v>
       </c>
       <c r="AA3">
-        <v>-1.416302765647744</v>
+        <v>-1.656050955414013</v>
       </c>
       <c r="AB3">
-        <v>0.07920920651368583</v>
+        <v>0.06026819411833331</v>
       </c>
       <c r="AC3">
-        <v>-1.49551197216143</v>
+        <v>-1.716319149532346</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -785,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.036</v>
+        <v>-0.163</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -794,22 +806,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05294117647058823</v>
+        <v>-0.004994331586849281</v>
       </c>
       <c r="AK3">
-        <v>-0.02346805736636245</v>
+        <v>-0.2620578778135048</v>
       </c>
       <c r="AL3">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="AM3">
-        <v>0.016</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-60.8125</v>
+        <v>-65</v>
+      </c>
+      <c r="AP3">
+        <v>0.12734375</v>
       </c>
       <c r="AQ3">
-        <v>-60.8125</v>
+        <v>-65</v>
       </c>
     </row>
   </sheetData>
